--- a/biology/Botanique/Hosta_undulata/Hosta_undulata.xlsx
+++ b/biology/Botanique/Hosta_undulata/Hosta_undulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hosta undulata fut considérée comme une espèce sous le nom de Hosta undulata (Otto &amp; A.Dietr.) L.H.Bailey, 1923.
-Elle est actuellement considérée comme un cultivar du genre Hosta sous le nom de « Hosta undulata Albo Marginata », largement cultivé comme plante ornementale en bordure ou comme plante isolée[1].  
-Depuis 2011, elle n'est plus acceptée comme espèce par la liste « WCSP » (Liste mondiale des familles de plantes sélectionnées)[2], et a été reléguée au statut de cultivar par George Schmid[3].
+Elle est actuellement considérée comme un cultivar du genre Hosta sous le nom de « Hosta undulata Albo Marginata », largement cultivé comme plante ornementale en bordure ou comme plante isolée.  
+Depuis 2011, elle n'est plus acceptée comme espèce par la liste « WCSP » (Liste mondiale des familles de plantes sélectionnées), et a été reléguée au statut de cultivar par George Schmid.
 Cette plante fut classée dans sa propre famille des Hostaceae.
 </t>
         </is>
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante aux feuilles caduques fait entre 0,3 et 0,7 m de haut. Elle tolère des expositions entre mi-soleil et ombre, sur sol riche, frais et bien drainé. Sa floraison lavande pâle est estivale (juillet/aout).
-Elle est utilisée en massif, plate-bande, sous-bois[4],[5].
+Elle est utilisée en massif, plate-bande, sous-bois,.
 L'Hosta undulata est renommée pour prospérer sur les zones ombragées des jardins et des sous-bois. Elle peut présenter différents feuillages : panachés ou unis de teintes variables. Les fleurs sont parfois parfumées. 
 </t>
         </is>
